--- a/샘플데이터/성적관리-제1정규화(2020-07-25).xlsx
+++ b/샘플데이터/성적관리-제1정규화(2020-07-25).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\개발자 문서\040. 데이터베이스 DataBase\데이터변환용 자료\성적일람표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\Reference 자료\샘플데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBAB487-3CB4-4141-A6AD-8CFE659480F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E7D7C8-6AE0-4933-8776-B25DCA9BC28F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-1472-5961</v>
+        <v>010-4297-5628</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>314</v>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C3" s="5" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="0">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-1972-9833</v>
+        <v>010-5244-6680</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>315</v>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9432-3405</v>
+        <v>010-5423-1921</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>348</v>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="C5" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2873-8351</v>
+        <v>010-2737-1247</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>349</v>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="C6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4621-3221</v>
+        <v>010-3914-9003</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>316</v>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="C7" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8043-2374</v>
+        <v>010-7330-2475</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>317</v>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="C8" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3808-8614</v>
+        <v>010-5955-1386</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>344</v>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="C9" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2423-4475</v>
+        <v>010-3180-4413</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>318</v>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="C10" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6651-9949</v>
+        <v>010-9815-0257</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>319</v>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="C11" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2330-6116</v>
+        <v>010-6875-6317</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>346</v>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C12" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4292-8437</v>
+        <v>010-1028-0332</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>347</v>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="C13" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2966-2008</v>
+        <v>010-1269-5864</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>320</v>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="C14" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6890-8520</v>
+        <v>010-5058-6737</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>350</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="C15" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6483-4632</v>
+        <v>010-2549-2700</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>321</v>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C16" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7600-8349</v>
+        <v>010-6640-3575</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>322</v>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="C17" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2913-5308</v>
+        <v>010-1991-5256</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>323</v>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="C18" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4552-5724</v>
+        <v>010-4983-0805</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>345</v>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="C19" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5979-3940</v>
+        <v>010-7681-8911</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>351</v>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="C20" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6083-4118</v>
+        <v>010-4330-7389</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>352</v>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="C21" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9297-0852</v>
+        <v>010-1523-7668</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>353</v>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="C22" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3825-3190</v>
+        <v>010-2066-4953</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>354</v>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="C23" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2153-2451</v>
+        <v>010-2217-3866</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>355</v>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="C24" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8167-2403</v>
+        <v>010-5932-9278</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>324</v>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="C25" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5891-9920</v>
+        <v>010-6302-9718</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>325</v>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="C26" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2537-7044</v>
+        <v>010-6521-6347</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>326</v>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="C27" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5070-1730</v>
+        <v>010-8772-9559</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>356</v>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="C28" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4159-0532</v>
+        <v>010-2809-1533</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>357</v>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C29" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7318-3825</v>
+        <v>010-8019-5880</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>358</v>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="C30" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9081-8885</v>
+        <v>010-6889-2462</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>327</v>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="C31" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1281-9369</v>
+        <v>010-9077-7376</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>328</v>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="C32" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4949-5198</v>
+        <v>010-1268-0203</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>359</v>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="C33" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7569-4872</v>
+        <v>010-9880-1323</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>329</v>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="C34" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9336-2586</v>
+        <v>010-1569-5317</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>330</v>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="C35" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7548-0759</v>
+        <v>010-3370-8950</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>331</v>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="C36" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7401-1739</v>
+        <v>010-4099-1531</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>332</v>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="C37" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5879-4423</v>
+        <v>010-3620-4576</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>333</v>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="C38" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4683-4001</v>
+        <v>010-6570-2470</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>360</v>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="C39" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9331-3766</v>
+        <v>010-1536-1741</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>361</v>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="C40" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4386-3183</v>
+        <v>010-1593-6966</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>362</v>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="C41" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8560-1151</v>
+        <v>010-5239-8164</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>363</v>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="C42" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2807-2707</v>
+        <v>010-1310-8476</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>334</v>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="C43" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9115-3093</v>
+        <v>010-6572-6715</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>335</v>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="C44" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3290-8093</v>
+        <v>010-8276-1897</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>336</v>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="C45" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7800-0732</v>
+        <v>010-7838-6146</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>337</v>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C46" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5216-8722</v>
+        <v>010-6018-6009</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>364</v>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="C47" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2435-2827</v>
+        <v>010-7469-2631</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>365</v>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="C48" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4713-3463</v>
+        <v>010-2667-8756</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>366</v>
@@ -3440,7 +3440,7 @@
       </c>
       <c r="C49" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1869-3251</v>
+        <v>010-4423-5341</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>367</v>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="C50" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3142-1894</v>
+        <v>010-2160-0402</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>338</v>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="C51" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1126-5442</v>
+        <v>010-3953-3178</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>339</v>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="C52" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2437-1635</v>
+        <v>010-3457-8021</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>340</v>
@@ -3556,7 +3556,7 @@
       </c>
       <c r="C53" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8347-5887</v>
+        <v>010-5310-3812</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>341</v>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="C54" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8490-8320</v>
+        <v>010-2764-6788</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>368</v>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="C55" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6625-0272</v>
+        <v>010-5761-4465</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>369</v>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="C56" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6851-3686</v>
+        <v>010-1150-0887</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>342</v>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="C57" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8915-1985</v>
+        <v>010-5598-3562</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>370</v>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="C58" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2821-9861</v>
+        <v>010-7559-8475</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>343</v>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="C59" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4689-4465</v>
+        <v>010-7600-2520</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>371</v>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="C60" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1631-4642</v>
+        <v>010-9329-3644</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>372</v>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="C61" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9500-0452</v>
+        <v>010-1608-0572</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>373</v>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="C62" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2214-5475</v>
+        <v>010-4720-9032</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>404</v>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="C63" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8253-0394</v>
+        <v>010-9606-0546</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>374</v>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="C64" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9372-6920</v>
+        <v>010-1188-3387</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>375</v>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="C65" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5178-6308</v>
+        <v>010-4457-2677</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>376</v>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="C66" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7459-2487</v>
+        <v>010-3586-0683</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>377</v>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="C67" s="5" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="1">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-3809-5339</v>
+        <v>010-6118-5622</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>378</v>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="C68" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6852-5792</v>
+        <v>010-5970-7826</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>379</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="C69" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7066-8545</v>
+        <v>010-4163-9024</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>405</v>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="C70" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3502-6060</v>
+        <v>010-4366-9462</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>380</v>
@@ -4078,7 +4078,7 @@
       </c>
       <c r="C71" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2503-9515</v>
+        <v>010-9649-9614</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>406</v>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="C72" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7838-1013</v>
+        <v>010-9614-1246</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>381</v>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="C73" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9921-1325</v>
+        <v>010-6300-6004</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>382</v>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="C74" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4048-1577</v>
+        <v>010-5276-8017</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>383</v>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="C75" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8988-8358</v>
+        <v>010-9046-8225</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>384</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="C76" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4999-8681</v>
+        <v>010-4120-6522</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>407</v>
@@ -4252,7 +4252,7 @@
       </c>
       <c r="C77" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9573-8560</v>
+        <v>010-2797-7061</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>408</v>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="C78" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9790-8193</v>
+        <v>010-4473-9122</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>385</v>
@@ -4310,7 +4310,7 @@
       </c>
       <c r="C79" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1112-7248</v>
+        <v>010-2101-2397</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>386</v>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="C80" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3574-5601</v>
+        <v>010-9532-1256</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>409</v>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="C81" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5834-4778</v>
+        <v>010-5506-9066</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>387</v>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C82" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2934-4179</v>
+        <v>010-2428-6506</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>410</v>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="C83" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9924-4861</v>
+        <v>010-8873-2158</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>388</v>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="C84" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2846-2769</v>
+        <v>010-6133-7042</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>389</v>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="C85" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8785-2216</v>
+        <v>010-3684-7720</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>390</v>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="C86" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8934-8216</v>
+        <v>010-9359-1088</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>391</v>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="C87" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4742-6820</v>
+        <v>010-1256-9964</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>392</v>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="C88" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6561-0808</v>
+        <v>010-1017-4255</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>411</v>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="C89" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3270-9033</v>
+        <v>010-2529-7405</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>393</v>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="C90" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8343-0217</v>
+        <v>010-9132-4443</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>394</v>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="C91" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2955-1389</v>
+        <v>010-7941-9665</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>395</v>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="C92" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6503-8377</v>
+        <v>010-1084-8337</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>396</v>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="C93" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5679-8062</v>
+        <v>010-6701-8393</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>397</v>
@@ -4745,7 +4745,7 @@
       </c>
       <c r="C94" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3106-7569</v>
+        <v>010-2539-5682</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>398</v>
@@ -4774,7 +4774,7 @@
       </c>
       <c r="C95" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8740-0571</v>
+        <v>010-1741-2691</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>412</v>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="C96" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8028-3966</v>
+        <v>010-8101-2551</v>
       </c>
       <c r="D96" s="15" t="s">
         <v>413</v>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="C97" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9662-2753</v>
+        <v>010-4840-5677</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>399</v>
@@ -4861,7 +4861,7 @@
       </c>
       <c r="C98" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2176-6536</v>
+        <v>010-7670-6652</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>400</v>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="C99" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5642-5244</v>
+        <v>010-1202-4808</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>401</v>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="C100" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4663-7825</v>
+        <v>010-4082-8219</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>402</v>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="C101" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9053-6087</v>
+        <v>010-9999-4822</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>403</v>
@@ -4983,7 +4983,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12913,39 +12913,39 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:I22" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:I17" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J2">
         <f ca="1">SUM(C2:E2)</f>
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K2">
         <f ca="1">ROUND(AVERAGE(C2:E2),0)</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -12957,39 +12957,39 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:I23" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J21" ca="1" si="3">SUM(C3:E3)</f>
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K21" ca="1" si="4">ROUND(AVERAGE(C3:E3),0)</f>
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -13001,39 +13001,39 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="3"/>
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -13045,39 +13045,39 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="3"/>
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -13089,39 +13089,39 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="3"/>
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -13133,39 +13133,39 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="3"/>
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -13177,39 +13177,39 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="3"/>
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -13221,39 +13221,39 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="3"/>
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -13265,39 +13265,39 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="3"/>
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -13309,39 +13309,39 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="3"/>
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -13353,39 +13353,39 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="3"/>
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -13397,39 +13397,39 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="3"/>
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -13441,39 +13441,39 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="3"/>
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -13485,39 +13485,39 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="3"/>
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -13529,11 +13529,11 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
@@ -13541,27 +13541,27 @@
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="3"/>
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -13573,27 +13573,27 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
@@ -13601,11 +13601,11 @@
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="3"/>
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -13617,39 +13617,39 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="3"/>
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -13661,39 +13661,39 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="3"/>
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -13705,23 +13705,23 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="0"/>
@@ -13729,15 +13729,15 @@
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="3"/>
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -13749,39 +13749,39 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="3"/>
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -13793,39 +13793,39 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="J22">
         <f t="shared" ref="J22:J85" ca="1" si="5">SUM(C22:E22)</f>
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="K22">
         <f t="shared" ref="K22:K85" ca="1" si="6">ROUND(AVERAGE(C22:E22),0)</f>
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -13837,27 +13837,27 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="2"/>
@@ -13865,11 +13865,11 @@
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="5"/>
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -13881,39 +13881,39 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:I87" ca="1" si="7">RANDBETWEEN(50,100)</f>
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="5"/>
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -13925,39 +13925,39 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="5"/>
-        <v>265</v>
+        <v>214</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -13969,27 +13969,27 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="7"/>
@@ -13997,11 +13997,11 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="5"/>
-        <v>238</v>
+        <v>162</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -14013,39 +14013,39 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="5"/>
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -14057,39 +14057,39 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="5"/>
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -14101,39 +14101,39 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="7"/>
+        <v>86</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="7"/>
+        <v>95</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ca="1" si="7"/>
+        <v>99</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ca="1" si="7"/>
         <v>96</v>
-      </c>
-      <c r="D29">
-        <f t="shared" ca="1" si="7"/>
-        <v>57</v>
-      </c>
-      <c r="E29">
-        <f t="shared" ca="1" si="7"/>
-        <v>72</v>
-      </c>
-      <c r="F29">
-        <f t="shared" ca="1" si="7"/>
-        <v>63</v>
-      </c>
-      <c r="G29">
-        <f t="shared" ca="1" si="7"/>
-        <v>61</v>
-      </c>
-      <c r="H29">
-        <f t="shared" ca="1" si="7"/>
-        <v>99</v>
-      </c>
-      <c r="I29">
-        <f t="shared" ca="1" si="7"/>
-        <v>61</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="5"/>
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -14145,39 +14145,39 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="7"/>
         <v>80</v>
       </c>
-      <c r="G30">
-        <f t="shared" ca="1" si="7"/>
-        <v>88</v>
-      </c>
       <c r="H30">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="5"/>
-        <v>222</v>
+        <v>294</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -14189,39 +14189,39 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="7"/>
+        <v>63</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="7"/>
+        <v>93</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="7"/>
         <v>84</v>
       </c>
-      <c r="F31">
-        <f t="shared" ca="1" si="7"/>
-        <v>51</v>
-      </c>
-      <c r="G31">
-        <f t="shared" ca="1" si="7"/>
-        <v>67</v>
-      </c>
       <c r="H31">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="5"/>
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -14233,39 +14233,39 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="5"/>
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -14277,39 +14277,39 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="7"/>
+        <v>88</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="7"/>
+        <v>89</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="7"/>
+        <v>52</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="7"/>
         <v>94</v>
       </c>
-      <c r="D33">
-        <f t="shared" ca="1" si="7"/>
-        <v>77</v>
-      </c>
-      <c r="E33">
-        <f t="shared" ca="1" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="F33">
-        <f t="shared" ca="1" si="7"/>
-        <v>69</v>
-      </c>
-      <c r="G33">
-        <f t="shared" ca="1" si="7"/>
-        <v>57</v>
-      </c>
-      <c r="H33">
-        <f t="shared" ca="1" si="7"/>
-        <v>91</v>
-      </c>
       <c r="I33">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="5"/>
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -14321,39 +14321,39 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="7"/>
+        <v>87</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="7"/>
+        <v>89</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="7"/>
         <v>82</v>
       </c>
-      <c r="D34">
-        <f t="shared" ca="1" si="7"/>
-        <v>96</v>
-      </c>
-      <c r="E34">
-        <f t="shared" ca="1" si="7"/>
-        <v>52</v>
-      </c>
-      <c r="F34">
-        <f t="shared" ca="1" si="7"/>
-        <v>70</v>
-      </c>
-      <c r="G34">
-        <f t="shared" ca="1" si="7"/>
-        <v>99</v>
-      </c>
       <c r="H34">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="5"/>
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -14365,39 +14365,39 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="5"/>
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -14409,39 +14409,39 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H36">
         <f t="shared" ref="F36:I99" ca="1" si="8">RANDBETWEEN(50,100)</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="5"/>
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -14453,39 +14453,39 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E37">
         <f t="shared" ref="E37:I100" ca="1" si="9">RANDBETWEEN(50,100)</f>
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="5"/>
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -14497,39 +14497,39 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="9"/>
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="5"/>
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -14541,19 +14541,19 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="9"/>
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="8"/>
@@ -14561,19 +14561,19 @@
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="8"/>
         <v>69</v>
-      </c>
-      <c r="I39">
-        <f t="shared" ca="1" si="8"/>
-        <v>89</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="5"/>
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -14585,39 +14585,39 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="9"/>
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="5"/>
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -14629,39 +14629,39 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="5"/>
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -14673,39 +14673,39 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="5"/>
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -14717,39 +14717,39 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="9"/>
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="5"/>
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -14761,39 +14761,39 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="9"/>
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="5"/>
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -14805,39 +14805,39 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="9"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="5"/>
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -14849,39 +14849,39 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="9"/>
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="8"/>
+        <v>82</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ca="1" si="8"/>
+        <v>68</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ca="1" si="8"/>
         <v>51</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <f t="shared" ca="1" si="8"/>
         <v>76</v>
-      </c>
-      <c r="H46">
-        <f t="shared" ca="1" si="8"/>
-        <v>65</v>
-      </c>
-      <c r="I46">
-        <f t="shared" ca="1" si="8"/>
-        <v>83</v>
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="5"/>
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -14893,39 +14893,39 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="5"/>
-        <v>231</v>
+        <v>166</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -14937,39 +14937,39 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="9"/>
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="8"/>
         <v>77</v>
       </c>
-      <c r="H48">
-        <f t="shared" ca="1" si="8"/>
-        <v>98</v>
-      </c>
       <c r="I48">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="5"/>
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -14981,39 +14981,39 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="9"/>
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="5"/>
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -15029,35 +15029,35 @@
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="9"/>
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="5"/>
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -15069,39 +15069,39 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="9"/>
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="5"/>
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -15113,39 +15113,39 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="5"/>
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -15157,39 +15157,39 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="5"/>
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -15201,39 +15201,39 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="9"/>
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="5"/>
-        <v>214</v>
+        <v>267</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -15245,39 +15245,39 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="9"/>
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="5"/>
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -15289,39 +15289,39 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="9"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="5"/>
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -15333,27 +15333,27 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="8"/>
@@ -15361,11 +15361,11 @@
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="5"/>
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -15377,39 +15377,39 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="9"/>
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="5"/>
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -15421,39 +15421,39 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="9"/>
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="5"/>
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -15465,39 +15465,39 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="9"/>
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="5"/>
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -15509,39 +15509,39 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="9"/>
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="5"/>
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -15557,35 +15557,35 @@
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="5"/>
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -15597,39 +15597,39 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="9"/>
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="5"/>
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -15641,39 +15641,39 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="5"/>
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -15685,39 +15685,39 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="9"/>
+        <v>52</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="G65">
+        <f t="shared" ca="1" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="H65">
+        <f t="shared" ca="1" si="8"/>
         <v>81</v>
       </c>
-      <c r="F65">
-        <f t="shared" ca="1" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="G65">
-        <f t="shared" ca="1" si="8"/>
-        <v>89</v>
-      </c>
-      <c r="H65">
-        <f t="shared" ca="1" si="8"/>
-        <v>75</v>
-      </c>
       <c r="I65">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="5"/>
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -15729,39 +15729,39 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="9"/>
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I66">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="5"/>
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -15773,39 +15773,39 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ca="1" si="8"/>
         <v>74</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <f t="shared" ca="1" si="8"/>
         <v>82</v>
       </c>
-      <c r="G67">
-        <f t="shared" ca="1" si="8"/>
-        <v>91</v>
-      </c>
       <c r="H67">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="5"/>
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -15817,27 +15817,27 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="9"/>
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="8"/>
@@ -15845,11 +15845,11 @@
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="5"/>
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -15861,39 +15861,39 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="9"/>
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="8"/>
+        <v>95</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ca="1" si="8"/>
         <v>98</v>
       </c>
-      <c r="G69">
-        <f t="shared" ca="1" si="8"/>
-        <v>90</v>
-      </c>
       <c r="H69">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="5"/>
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -15905,39 +15905,39 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="5"/>
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -15949,39 +15949,39 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="9"/>
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="5"/>
-        <v>212</v>
+        <v>271</v>
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -15993,39 +15993,39 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="9"/>
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="5"/>
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -16037,39 +16037,39 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="9"/>
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="H73">
+        <f t="shared" ca="1" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="I73">
+        <f t="shared" ca="1" si="8"/>
         <v>77</v>
-      </c>
-      <c r="H73">
-        <f t="shared" ca="1" si="8"/>
-        <v>88</v>
-      </c>
-      <c r="I73">
-        <f t="shared" ca="1" si="8"/>
-        <v>96</v>
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="5"/>
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -16081,39 +16081,39 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="9"/>
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="5"/>
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -16125,39 +16125,39 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="9"/>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="J75">
         <f t="shared" ca="1" si="5"/>
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K75">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -16169,39 +16169,39 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="G76">
+        <f t="shared" ca="1" si="8"/>
         <v>89</v>
       </c>
-      <c r="G76">
-        <f t="shared" ca="1" si="8"/>
-        <v>51</v>
-      </c>
       <c r="H76">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="5"/>
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="K76">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -16213,39 +16213,39 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J77">
         <f t="shared" ca="1" si="5"/>
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="K77">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -16257,39 +16257,39 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="9"/>
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="J78">
         <f t="shared" ca="1" si="5"/>
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="K78">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -16301,39 +16301,39 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="9"/>
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="8"/>
+        <v>94</v>
+      </c>
+      <c r="G79">
+        <f t="shared" ca="1" si="8"/>
+        <v>86</v>
+      </c>
+      <c r="H79">
+        <f t="shared" ca="1" si="8"/>
+        <v>54</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ca="1" si="8"/>
         <v>100</v>
-      </c>
-      <c r="G79">
-        <f t="shared" ca="1" si="8"/>
-        <v>82</v>
-      </c>
-      <c r="H79">
-        <f t="shared" ca="1" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="I79">
-        <f t="shared" ca="1" si="8"/>
-        <v>57</v>
       </c>
       <c r="J79">
         <f t="shared" ca="1" si="5"/>
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="K79">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -16345,39 +16345,39 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="9"/>
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J80">
         <f t="shared" ca="1" si="5"/>
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K80">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -16389,11 +16389,11 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="9"/>
@@ -16401,11 +16401,11 @@
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="8"/>
@@ -16413,15 +16413,15 @@
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="J81">
         <f t="shared" ca="1" si="5"/>
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="K81">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -16433,39 +16433,39 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="J82">
         <f t="shared" ca="1" si="5"/>
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="K82">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -16477,39 +16477,39 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="7"/>
+        <v>69</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="7"/>
         <v>80</v>
-      </c>
-      <c r="D83">
-        <f t="shared" ca="1" si="7"/>
-        <v>79</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="9"/>
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="J83">
         <f t="shared" ca="1" si="5"/>
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="K83">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -16521,39 +16521,39 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="9"/>
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="J84">
         <f t="shared" ca="1" si="5"/>
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="K84">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -16565,39 +16565,39 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="9"/>
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="J85">
         <f t="shared" ca="1" si="5"/>
-        <v>215</v>
+        <v>274</v>
       </c>
       <c r="K85">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -16609,39 +16609,39 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="9"/>
+        <v>83</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="8"/>
         <v>76</v>
       </c>
-      <c r="F86">
-        <f t="shared" ca="1" si="8"/>
-        <v>66</v>
-      </c>
       <c r="G86">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J86">
         <f t="shared" ref="J86:J101" ca="1" si="10">SUM(C86:E86)</f>
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="K86">
         <f t="shared" ref="K86:K101" ca="1" si="11">ROUND(AVERAGE(C86:E86),0)</f>
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -16653,39 +16653,39 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="9"/>
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="8"/>
+        <v>94</v>
+      </c>
+      <c r="H87">
+        <f t="shared" ca="1" si="8"/>
+        <v>53</v>
+      </c>
+      <c r="I87">
+        <f t="shared" ca="1" si="8"/>
         <v>65</v>
-      </c>
-      <c r="H87">
-        <f t="shared" ca="1" si="8"/>
-        <v>52</v>
-      </c>
-      <c r="I87">
-        <f t="shared" ca="1" si="8"/>
-        <v>70</v>
       </c>
       <c r="J87">
         <f t="shared" ca="1" si="10"/>
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="K87">
         <f t="shared" ca="1" si="11"/>
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -16701,35 +16701,35 @@
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="12"/>
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="J88">
         <f t="shared" ca="1" si="10"/>
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="K88">
         <f t="shared" ca="1" si="11"/>
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -16741,39 +16741,39 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="12"/>
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="12"/>
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I89">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="J89">
         <f t="shared" ca="1" si="10"/>
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="K89">
         <f t="shared" ca="1" si="11"/>
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -16785,39 +16785,39 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="12"/>
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="12"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I90">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J90">
         <f t="shared" ca="1" si="10"/>
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="K90">
         <f t="shared" ca="1" si="11"/>
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -16829,39 +16829,39 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="12"/>
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="12"/>
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="J91">
         <f t="shared" ca="1" si="10"/>
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="K91">
         <f t="shared" ca="1" si="11"/>
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -16873,39 +16873,39 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="12"/>
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="12"/>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="9"/>
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="J92">
         <f t="shared" ca="1" si="10"/>
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="K92">
         <f t="shared" ca="1" si="11"/>
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -16917,39 +16917,39 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="12"/>
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="12"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="J93">
         <f t="shared" ca="1" si="10"/>
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="K93">
         <f t="shared" ca="1" si="11"/>
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -16961,39 +16961,39 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="12"/>
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="12"/>
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="9"/>
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="8"/>
+        <v>85</v>
+      </c>
+      <c r="I94">
+        <f t="shared" ca="1" si="8"/>
         <v>64</v>
-      </c>
-      <c r="I94">
-        <f t="shared" ca="1" si="8"/>
-        <v>66</v>
       </c>
       <c r="J94">
         <f t="shared" ca="1" si="10"/>
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="K94">
         <f t="shared" ca="1" si="11"/>
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -17005,11 +17005,11 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="12"/>
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="12"/>
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="9"/>
@@ -17017,27 +17017,27 @@
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="J95">
         <f t="shared" ca="1" si="10"/>
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="K95">
         <f t="shared" ca="1" si="11"/>
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -17049,39 +17049,39 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="12"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="12"/>
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J96">
         <f t="shared" ca="1" si="10"/>
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="K96">
         <f t="shared" ca="1" si="11"/>
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -17093,39 +17093,39 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="12"/>
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="12"/>
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="9"/>
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J97">
         <f t="shared" ca="1" si="10"/>
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="K97">
         <f t="shared" ca="1" si="11"/>
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -17137,39 +17137,39 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="12"/>
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="12"/>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="9"/>
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="I98">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="J98">
         <f t="shared" ca="1" si="10"/>
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="K98">
         <f t="shared" ca="1" si="11"/>
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -17181,39 +17181,39 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="12"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="12"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="9"/>
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="J99">
         <f t="shared" ca="1" si="10"/>
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="K99">
         <f t="shared" ca="1" si="11"/>
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -17225,19 +17225,19 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="12"/>
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="12"/>
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="9"/>
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="9"/>
@@ -17245,19 +17245,19 @@
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="9"/>
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="9"/>
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="J100">
         <f t="shared" ca="1" si="10"/>
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="K100">
         <f t="shared" ca="1" si="11"/>
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -17269,39 +17269,39 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="12"/>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="12"/>
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="12"/>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="12"/>
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="12"/>
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="12"/>
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I101">
         <f t="shared" ca="1" si="12"/>
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="J101">
         <f t="shared" ca="1" si="10"/>
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="K101">
         <f t="shared" ca="1" si="11"/>
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/샘플데이터/성적관리-제1정규화(2020-07-25).xlsx
+++ b/샘플데이터/성적관리-제1정규화(2020-07-25).xlsx
@@ -1,40 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\Reference 자료\샘플데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E7D7C8-6AE0-4933-8776-B25DCA9BC28F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9860736-5888-4B23-AA9D-8EE59337DA9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
     <sheet name="학과정보" sheetId="4" r:id="rId2"/>
     <sheet name="성적테이블 제1정규화" sheetId="5" r:id="rId3"/>
     <sheet name="성적테이블_칼럼" sheetId="3" r:id="rId4"/>
+    <sheet name="성적테이블_칼럼 (2)" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="452">
   <si>
     <t>학번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1763,6 +1758,133 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFE27EF-43B7-4808-99EA-AE410A6D5ED9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7058025" y="1676400"/>
+          <a:ext cx="5010150" cy="2314575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B7F705-6773-49A6-B920-B47F42BEFA80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5686425" y="628650"/>
+          <a:ext cx="5010150" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -2028,7 +2150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -2077,7 +2199,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-4297-5628</v>
+        <v>010-4450-9150</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>314</v>
@@ -2106,7 +2228,7 @@
       </c>
       <c r="C3" s="5" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="0">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-5244-6680</v>
+        <v>010-7137-4233</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>315</v>
@@ -2135,7 +2257,7 @@
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5423-1921</v>
+        <v>010-1105-6057</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>348</v>
@@ -2164,7 +2286,7 @@
       </c>
       <c r="C5" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2737-1247</v>
+        <v>010-7282-1538</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>349</v>
@@ -2193,7 +2315,7 @@
       </c>
       <c r="C6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3914-9003</v>
+        <v>010-1396-0809</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>316</v>
@@ -2222,7 +2344,7 @@
       </c>
       <c r="C7" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7330-2475</v>
+        <v>010-4051-7978</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>317</v>
@@ -2251,7 +2373,7 @@
       </c>
       <c r="C8" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5955-1386</v>
+        <v>010-8837-0307</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>344</v>
@@ -2280,7 +2402,7 @@
       </c>
       <c r="C9" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3180-4413</v>
+        <v>010-5453-9378</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>318</v>
@@ -2309,7 +2431,7 @@
       </c>
       <c r="C10" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9815-0257</v>
+        <v>010-8993-5691</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>319</v>
@@ -2338,7 +2460,7 @@
       </c>
       <c r="C11" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6875-6317</v>
+        <v>010-2823-0616</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>346</v>
@@ -2367,7 +2489,7 @@
       </c>
       <c r="C12" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1028-0332</v>
+        <v>010-2448-5009</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>347</v>
@@ -2396,7 +2518,7 @@
       </c>
       <c r="C13" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1269-5864</v>
+        <v>010-6965-8928</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>320</v>
@@ -2425,7 +2547,7 @@
       </c>
       <c r="C14" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5058-6737</v>
+        <v>010-6236-7724</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>350</v>
@@ -2454,7 +2576,7 @@
       </c>
       <c r="C15" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2549-2700</v>
+        <v>010-3965-6774</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>321</v>
@@ -2483,7 +2605,7 @@
       </c>
       <c r="C16" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6640-3575</v>
+        <v>010-1073-9228</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>322</v>
@@ -2512,7 +2634,7 @@
       </c>
       <c r="C17" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1991-5256</v>
+        <v>010-2976-7949</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>323</v>
@@ -2541,7 +2663,7 @@
       </c>
       <c r="C18" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4983-0805</v>
+        <v>010-8683-0606</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>345</v>
@@ -2570,7 +2692,7 @@
       </c>
       <c r="C19" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7681-8911</v>
+        <v>010-1055-5831</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>351</v>
@@ -2599,7 +2721,7 @@
       </c>
       <c r="C20" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4330-7389</v>
+        <v>010-2959-7301</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>352</v>
@@ -2628,7 +2750,7 @@
       </c>
       <c r="C21" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1523-7668</v>
+        <v>010-1958-3200</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>353</v>
@@ -2657,7 +2779,7 @@
       </c>
       <c r="C22" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2066-4953</v>
+        <v>010-4064-9056</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>354</v>
@@ -2686,7 +2808,7 @@
       </c>
       <c r="C23" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2217-3866</v>
+        <v>010-5653-4140</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>355</v>
@@ -2715,7 +2837,7 @@
       </c>
       <c r="C24" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5932-9278</v>
+        <v>010-7324-9216</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>324</v>
@@ -2744,7 +2866,7 @@
       </c>
       <c r="C25" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6302-9718</v>
+        <v>010-5868-1782</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>325</v>
@@ -2773,7 +2895,7 @@
       </c>
       <c r="C26" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6521-6347</v>
+        <v>010-8719-7276</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>326</v>
@@ -2802,7 +2924,7 @@
       </c>
       <c r="C27" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8772-9559</v>
+        <v>010-7804-6923</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>356</v>
@@ -2831,7 +2953,7 @@
       </c>
       <c r="C28" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2809-1533</v>
+        <v>010-9470-9211</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>357</v>
@@ -2860,7 +2982,7 @@
       </c>
       <c r="C29" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8019-5880</v>
+        <v>010-8338-9479</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>358</v>
@@ -2889,7 +3011,7 @@
       </c>
       <c r="C30" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6889-2462</v>
+        <v>010-5366-1807</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>327</v>
@@ -2918,7 +3040,7 @@
       </c>
       <c r="C31" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9077-7376</v>
+        <v>010-4144-7925</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>328</v>
@@ -2947,7 +3069,7 @@
       </c>
       <c r="C32" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1268-0203</v>
+        <v>010-1229-4230</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>359</v>
@@ -2976,7 +3098,7 @@
       </c>
       <c r="C33" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9880-1323</v>
+        <v>010-8912-9596</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>329</v>
@@ -3005,7 +3127,7 @@
       </c>
       <c r="C34" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1569-5317</v>
+        <v>010-5674-3420</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>330</v>
@@ -3034,7 +3156,7 @@
       </c>
       <c r="C35" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3370-8950</v>
+        <v>010-6013-4787</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>331</v>
@@ -3063,7 +3185,7 @@
       </c>
       <c r="C36" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4099-1531</v>
+        <v>010-2826-4945</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>332</v>
@@ -3092,7 +3214,7 @@
       </c>
       <c r="C37" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3620-4576</v>
+        <v>010-8311-2097</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>333</v>
@@ -3121,7 +3243,7 @@
       </c>
       <c r="C38" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6570-2470</v>
+        <v>010-8414-0233</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>360</v>
@@ -3150,7 +3272,7 @@
       </c>
       <c r="C39" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1536-1741</v>
+        <v>010-1108-9866</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>361</v>
@@ -3179,7 +3301,7 @@
       </c>
       <c r="C40" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1593-6966</v>
+        <v>010-1571-3000</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>362</v>
@@ -3208,7 +3330,7 @@
       </c>
       <c r="C41" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5239-8164</v>
+        <v>010-5283-3395</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>363</v>
@@ -3237,7 +3359,7 @@
       </c>
       <c r="C42" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1310-8476</v>
+        <v>010-2823-8957</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>334</v>
@@ -3266,7 +3388,7 @@
       </c>
       <c r="C43" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6572-6715</v>
+        <v>010-7401-7824</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>335</v>
@@ -3295,7 +3417,7 @@
       </c>
       <c r="C44" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8276-1897</v>
+        <v>010-8746-5917</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>336</v>
@@ -3324,7 +3446,7 @@
       </c>
       <c r="C45" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7838-6146</v>
+        <v>010-6577-1894</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>337</v>
@@ -3353,7 +3475,7 @@
       </c>
       <c r="C46" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6018-6009</v>
+        <v>010-9238-5224</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>364</v>
@@ -3382,7 +3504,7 @@
       </c>
       <c r="C47" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7469-2631</v>
+        <v>010-2198-6041</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>365</v>
@@ -3411,7 +3533,7 @@
       </c>
       <c r="C48" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2667-8756</v>
+        <v>010-9571-3281</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>366</v>
@@ -3440,7 +3562,7 @@
       </c>
       <c r="C49" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4423-5341</v>
+        <v>010-7096-3028</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>367</v>
@@ -3469,7 +3591,7 @@
       </c>
       <c r="C50" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2160-0402</v>
+        <v>010-5693-3891</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>338</v>
@@ -3498,7 +3620,7 @@
       </c>
       <c r="C51" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3953-3178</v>
+        <v>010-1686-2801</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>339</v>
@@ -3527,7 +3649,7 @@
       </c>
       <c r="C52" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3457-8021</v>
+        <v>010-5866-2765</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>340</v>
@@ -3556,7 +3678,7 @@
       </c>
       <c r="C53" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5310-3812</v>
+        <v>010-1756-2944</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>341</v>
@@ -3585,7 +3707,7 @@
       </c>
       <c r="C54" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2764-6788</v>
+        <v>010-9623-4996</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>368</v>
@@ -3614,7 +3736,7 @@
       </c>
       <c r="C55" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5761-4465</v>
+        <v>010-3750-3538</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>369</v>
@@ -3643,7 +3765,7 @@
       </c>
       <c r="C56" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1150-0887</v>
+        <v>010-4398-6203</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>342</v>
@@ -3672,7 +3794,7 @@
       </c>
       <c r="C57" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5598-3562</v>
+        <v>010-3155-1623</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>370</v>
@@ -3701,7 +3823,7 @@
       </c>
       <c r="C58" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7559-8475</v>
+        <v>010-9955-9502</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>343</v>
@@ -3730,7 +3852,7 @@
       </c>
       <c r="C59" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7600-2520</v>
+        <v>010-6176-7602</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>371</v>
@@ -3759,7 +3881,7 @@
       </c>
       <c r="C60" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9329-3644</v>
+        <v>010-7975-3831</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>372</v>
@@ -3788,7 +3910,7 @@
       </c>
       <c r="C61" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1608-0572</v>
+        <v>010-6392-0215</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>373</v>
@@ -3817,7 +3939,7 @@
       </c>
       <c r="C62" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4720-9032</v>
+        <v>010-1634-5007</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>404</v>
@@ -3846,7 +3968,7 @@
       </c>
       <c r="C63" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9606-0546</v>
+        <v>010-6287-9691</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>374</v>
@@ -3875,7 +3997,7 @@
       </c>
       <c r="C64" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1188-3387</v>
+        <v>010-8661-7204</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>375</v>
@@ -3904,7 +4026,7 @@
       </c>
       <c r="C65" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4457-2677</v>
+        <v>010-8134-8481</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>376</v>
@@ -3933,7 +4055,7 @@
       </c>
       <c r="C66" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3586-0683</v>
+        <v>010-4384-9572</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>377</v>
@@ -3962,7 +4084,7 @@
       </c>
       <c r="C67" s="5" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="1">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-6118-5622</v>
+        <v>010-9850-3640</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>378</v>
@@ -3991,7 +4113,7 @@
       </c>
       <c r="C68" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5970-7826</v>
+        <v>010-2192-5204</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>379</v>
@@ -4020,7 +4142,7 @@
       </c>
       <c r="C69" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4163-9024</v>
+        <v>010-5155-3779</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>405</v>
@@ -4049,7 +4171,7 @@
       </c>
       <c r="C70" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4366-9462</v>
+        <v>010-5408-7162</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>380</v>
@@ -4078,7 +4200,7 @@
       </c>
       <c r="C71" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9649-9614</v>
+        <v>010-2810-2083</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>406</v>
@@ -4107,7 +4229,7 @@
       </c>
       <c r="C72" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9614-1246</v>
+        <v>010-7425-0212</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>381</v>
@@ -4136,7 +4258,7 @@
       </c>
       <c r="C73" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6300-6004</v>
+        <v>010-6049-3195</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>382</v>
@@ -4165,7 +4287,7 @@
       </c>
       <c r="C74" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5276-8017</v>
+        <v>010-9507-3705</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>383</v>
@@ -4194,7 +4316,7 @@
       </c>
       <c r="C75" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9046-8225</v>
+        <v>010-5606-4556</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>384</v>
@@ -4223,7 +4345,7 @@
       </c>
       <c r="C76" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4120-6522</v>
+        <v>010-5777-2048</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>407</v>
@@ -4252,7 +4374,7 @@
       </c>
       <c r="C77" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2797-7061</v>
+        <v>010-6526-7931</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>408</v>
@@ -4281,7 +4403,7 @@
       </c>
       <c r="C78" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4473-9122</v>
+        <v>010-8285-7830</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>385</v>
@@ -4310,7 +4432,7 @@
       </c>
       <c r="C79" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2101-2397</v>
+        <v>010-7385-1839</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>386</v>
@@ -4339,7 +4461,7 @@
       </c>
       <c r="C80" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9532-1256</v>
+        <v>010-8005-2508</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>409</v>
@@ -4368,7 +4490,7 @@
       </c>
       <c r="C81" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5506-9066</v>
+        <v>010-6529-7587</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>387</v>
@@ -4397,7 +4519,7 @@
       </c>
       <c r="C82" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2428-6506</v>
+        <v>010-9323-2528</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>410</v>
@@ -4426,7 +4548,7 @@
       </c>
       <c r="C83" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8873-2158</v>
+        <v>010-1717-1144</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>388</v>
@@ -4455,7 +4577,7 @@
       </c>
       <c r="C84" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6133-7042</v>
+        <v>010-5798-9310</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>389</v>
@@ -4484,7 +4606,7 @@
       </c>
       <c r="C85" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3684-7720</v>
+        <v>010-3382-6049</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>390</v>
@@ -4513,7 +4635,7 @@
       </c>
       <c r="C86" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9359-1088</v>
+        <v>010-8389-1858</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>391</v>
@@ -4542,7 +4664,7 @@
       </c>
       <c r="C87" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1256-9964</v>
+        <v>010-1534-3400</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>392</v>
@@ -4571,7 +4693,7 @@
       </c>
       <c r="C88" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1017-4255</v>
+        <v>010-5358-0379</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>411</v>
@@ -4600,7 +4722,7 @@
       </c>
       <c r="C89" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2529-7405</v>
+        <v>010-6947-5723</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>393</v>
@@ -4629,7 +4751,7 @@
       </c>
       <c r="C90" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9132-4443</v>
+        <v>010-3216-6203</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>394</v>
@@ -4658,7 +4780,7 @@
       </c>
       <c r="C91" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7941-9665</v>
+        <v>010-8846-9520</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>395</v>
@@ -4687,7 +4809,7 @@
       </c>
       <c r="C92" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1084-8337</v>
+        <v>010-8812-6403</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>396</v>
@@ -4716,7 +4838,7 @@
       </c>
       <c r="C93" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6701-8393</v>
+        <v>010-7521-6496</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>397</v>
@@ -4745,7 +4867,7 @@
       </c>
       <c r="C94" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2539-5682</v>
+        <v>010-1772-8143</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>398</v>
@@ -4774,7 +4896,7 @@
       </c>
       <c r="C95" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1741-2691</v>
+        <v>010-1321-5624</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>412</v>
@@ -4803,7 +4925,7 @@
       </c>
       <c r="C96" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8101-2551</v>
+        <v>010-4557-4345</v>
       </c>
       <c r="D96" s="15" t="s">
         <v>413</v>
@@ -4832,7 +4954,7 @@
       </c>
       <c r="C97" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4840-5677</v>
+        <v>010-2758-8616</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>399</v>
@@ -4861,7 +4983,7 @@
       </c>
       <c r="C98" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7670-6652</v>
+        <v>010-5157-1791</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>400</v>
@@ -4890,7 +5012,7 @@
       </c>
       <c r="C99" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1202-4808</v>
+        <v>010-6108-1138</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>401</v>
@@ -4919,7 +5041,7 @@
       </c>
       <c r="C100" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4082-8219</v>
+        <v>010-9779-8529</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>402</v>
@@ -4948,7 +5070,7 @@
       </c>
       <c r="C101" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9999-4822</v>
+        <v>010-7439-9233</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>403</v>
@@ -12859,14 +12981,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="6" max="9" width="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -12913,39 +13034,39 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:I22" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:I17" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J2">
         <f ca="1">SUM(C2:E2)</f>
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="K2">
         <f ca="1">ROUND(AVERAGE(C2:E2),0)</f>
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -12957,39 +13078,39 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:I23" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J21" ca="1" si="3">SUM(C3:E3)</f>
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K21" ca="1" si="4">ROUND(AVERAGE(C3:E3),0)</f>
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -13001,39 +13122,39 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="3"/>
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -13045,39 +13166,39 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="3"/>
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -13089,39 +13210,39 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="3"/>
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -13133,39 +13254,39 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="3"/>
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -13177,39 +13298,39 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="3"/>
-        <v>162</v>
+        <v>245</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -13221,39 +13342,39 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="3"/>
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -13265,39 +13386,39 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="3"/>
-        <v>278</v>
+        <v>191</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -13309,39 +13430,39 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="3"/>
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -13353,39 +13474,39 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="3"/>
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -13397,39 +13518,39 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="3"/>
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -13441,39 +13562,39 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="3"/>
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -13485,39 +13606,39 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="3"/>
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -13529,39 +13650,39 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="3"/>
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -13573,39 +13694,39 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="3"/>
-        <v>181</v>
+        <v>274</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -13617,39 +13738,39 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="3"/>
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -13661,15 +13782,15 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
@@ -13677,23 +13798,23 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="3"/>
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -13705,39 +13826,39 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="3"/>
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -13749,39 +13870,39 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="3"/>
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -13793,39 +13914,39 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="J22">
         <f t="shared" ref="J22:J85" ca="1" si="5">SUM(C22:E22)</f>
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="K22">
         <f t="shared" ref="K22:K85" ca="1" si="6">ROUND(AVERAGE(C22:E22),0)</f>
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -13837,39 +13958,39 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="5"/>
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -13881,39 +14002,39 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:I87" ca="1" si="7">RANDBETWEEN(50,100)</f>
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="5"/>
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -13925,35 +14046,35 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="7"/>
         <v>62</v>
       </c>
-      <c r="E25">
-        <f t="shared" ca="1" si="7"/>
-        <v>54</v>
-      </c>
-      <c r="F25">
-        <f t="shared" ca="1" si="7"/>
-        <v>52</v>
-      </c>
       <c r="G25">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="5"/>
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
@@ -13969,39 +14090,39 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="7"/>
         <v>53</v>
       </c>
-      <c r="D26">
+      <c r="E26">
+        <f t="shared" ca="1" si="7"/>
+        <v>73</v>
+      </c>
+      <c r="F26">
         <f t="shared" ca="1" si="7"/>
         <v>51</v>
       </c>
-      <c r="E26">
-        <f t="shared" ca="1" si="7"/>
-        <v>58</v>
-      </c>
-      <c r="F26">
-        <f t="shared" ca="1" si="7"/>
-        <v>58</v>
-      </c>
       <c r="G26">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="5"/>
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -14013,39 +14134,39 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="5"/>
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -14057,39 +14178,39 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="5"/>
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -14101,39 +14222,39 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="5"/>
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -14145,39 +14266,39 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="5"/>
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -14189,39 +14310,39 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="7"/>
+        <v>71</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="7"/>
+        <v>67</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ca="1" si="7"/>
         <v>75</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ca="1" si="7"/>
-        <v>69</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ca="1" si="7"/>
-        <v>63</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ca="1" si="7"/>
-        <v>93</v>
-      </c>
-      <c r="G31">
-        <f t="shared" ca="1" si="7"/>
-        <v>84</v>
-      </c>
-      <c r="H31">
-        <f t="shared" ca="1" si="7"/>
-        <v>55</v>
-      </c>
-      <c r="I31">
-        <f t="shared" ca="1" si="7"/>
-        <v>91</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="5"/>
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -14233,39 +14354,39 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="5"/>
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -14277,39 +14398,39 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="5"/>
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -14321,39 +14442,39 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="7"/>
         <v>89</v>
       </c>
-      <c r="G34">
-        <f t="shared" ca="1" si="7"/>
-        <v>82</v>
-      </c>
       <c r="H34">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="5"/>
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -14365,39 +14486,39 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="7"/>
+        <v>87</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="7"/>
+        <v>97</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ca="1" si="7"/>
         <v>63</v>
       </c>
-      <c r="E35">
-        <f t="shared" ca="1" si="7"/>
-        <v>92</v>
-      </c>
-      <c r="F35">
-        <f t="shared" ca="1" si="7"/>
-        <v>79</v>
-      </c>
-      <c r="G35">
-        <f t="shared" ca="1" si="7"/>
-        <v>81</v>
-      </c>
       <c r="H35">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="5"/>
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -14409,39 +14530,39 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="H36">
         <f t="shared" ref="F36:I99" ca="1" si="8">RANDBETWEEN(50,100)</f>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="5"/>
-        <v>283</v>
+        <v>191</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -14453,39 +14574,39 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E37">
         <f t="shared" ref="E37:I100" ca="1" si="9">RANDBETWEEN(50,100)</f>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ca="1" si="8"/>
         <v>80</v>
       </c>
-      <c r="H37">
-        <f t="shared" ca="1" si="8"/>
-        <v>81</v>
-      </c>
       <c r="I37">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="5"/>
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -14497,39 +14618,39 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="8"/>
         <v>81</v>
       </c>
-      <c r="F38">
-        <f t="shared" ca="1" si="8"/>
-        <v>88</v>
-      </c>
       <c r="G38">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="5"/>
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -14541,39 +14662,39 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="5"/>
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -14585,39 +14706,39 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="9"/>
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="5"/>
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -14629,39 +14750,39 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="7"/>
         <v>65</v>
-      </c>
-      <c r="D41">
-        <f t="shared" ca="1" si="7"/>
-        <v>76</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="8"/>
+        <v>57</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ca="1" si="8"/>
         <v>81</v>
       </c>
-      <c r="F41">
-        <f t="shared" ca="1" si="8"/>
-        <v>82</v>
-      </c>
-      <c r="G41">
-        <f t="shared" ca="1" si="8"/>
-        <v>80</v>
-      </c>
       <c r="H41">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="5"/>
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -14673,39 +14794,39 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="5"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -14717,39 +14838,39 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="9"/>
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="5"/>
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -14761,39 +14882,39 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="9"/>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="5"/>
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -14805,23 +14926,23 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="9"/>
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="8"/>
@@ -14829,15 +14950,15 @@
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="5"/>
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -14849,39 +14970,39 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="9"/>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="5"/>
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -14893,39 +15014,39 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="9"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="5"/>
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -14937,39 +15058,39 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="8"/>
+        <v>96</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="8"/>
+        <v>54</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ca="1" si="8"/>
         <v>91</v>
-      </c>
-      <c r="F48">
-        <f t="shared" ca="1" si="8"/>
-        <v>68</v>
-      </c>
-      <c r="G48">
-        <f t="shared" ca="1" si="8"/>
-        <v>55</v>
-      </c>
-      <c r="H48">
-        <f t="shared" ca="1" si="8"/>
-        <v>77</v>
-      </c>
-      <c r="I48">
-        <f t="shared" ca="1" si="8"/>
-        <v>86</v>
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="5"/>
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -14981,39 +15102,39 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="9"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="5"/>
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -15025,39 +15146,39 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="9"/>
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="5"/>
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -15069,39 +15190,39 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="9"/>
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="5"/>
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -15113,39 +15234,39 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="9"/>
+        <v>85</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="8"/>
+        <v>83</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ca="1" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ca="1" si="8"/>
         <v>77</v>
       </c>
-      <c r="F52">
-        <f t="shared" ca="1" si="8"/>
-        <v>75</v>
-      </c>
-      <c r="G52">
-        <f t="shared" ca="1" si="8"/>
-        <v>89</v>
-      </c>
-      <c r="H52">
-        <f t="shared" ca="1" si="8"/>
-        <v>72</v>
-      </c>
       <c r="I52">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="5"/>
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -15157,39 +15278,39 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="5"/>
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -15201,39 +15322,39 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="9"/>
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="5"/>
-        <v>267</v>
+        <v>186</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -15245,39 +15366,39 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="9"/>
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="5"/>
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -15289,39 +15410,39 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="9"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="5"/>
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -15333,39 +15454,39 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="9"/>
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="H57">
+        <f t="shared" ca="1" si="8"/>
         <v>77</v>
       </c>
-      <c r="H57">
-        <f t="shared" ca="1" si="8"/>
-        <v>92</v>
-      </c>
       <c r="I57">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="5"/>
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -15377,39 +15498,39 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="9"/>
+        <v>94</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="8"/>
+        <v>63</v>
+      </c>
+      <c r="G58">
+        <f t="shared" ca="1" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="H58">
+        <f t="shared" ca="1" si="8"/>
         <v>67</v>
       </c>
-      <c r="F58">
-        <f t="shared" ca="1" si="8"/>
-        <v>94</v>
-      </c>
-      <c r="G58">
-        <f t="shared" ca="1" si="8"/>
-        <v>76</v>
-      </c>
-      <c r="H58">
-        <f t="shared" ca="1" si="8"/>
-        <v>95</v>
-      </c>
       <c r="I58">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="5"/>
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -15421,39 +15542,39 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="9"/>
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="5"/>
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -15465,11 +15586,11 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="9"/>
@@ -15477,27 +15598,27 @@
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="5"/>
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -15509,39 +15630,39 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="9"/>
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="5"/>
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -15553,39 +15674,39 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="9"/>
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="5"/>
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -15597,39 +15718,39 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="9"/>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="5"/>
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -15641,39 +15762,39 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="9"/>
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="5"/>
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -15685,39 +15806,39 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="5"/>
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -15729,39 +15850,39 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I66">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="5"/>
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -15773,39 +15894,39 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="9"/>
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="5"/>
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -15817,39 +15938,39 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="9"/>
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="5"/>
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -15861,35 +15982,35 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="9"/>
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="5"/>
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="6"/>
@@ -15905,39 +16026,39 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="9"/>
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="5"/>
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -15949,39 +16070,39 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="9"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="5"/>
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -15993,39 +16114,39 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="9"/>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="5"/>
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -16037,39 +16158,39 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="9"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="5"/>
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -16081,39 +16202,39 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="9"/>
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="5"/>
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -16125,39 +16246,39 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="9"/>
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J75">
         <f t="shared" ca="1" si="5"/>
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K75">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -16169,39 +16290,39 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="9"/>
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="5"/>
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="K76">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -16213,39 +16334,39 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="9"/>
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="J77">
         <f t="shared" ca="1" si="5"/>
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="K77">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -16257,31 +16378,31 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J78">
         <f t="shared" ca="1" si="5"/>
@@ -16301,11 +16422,11 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="9"/>
@@ -16313,27 +16434,27 @@
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="J79">
         <f t="shared" ca="1" si="5"/>
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="K79">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -16345,39 +16466,39 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="9"/>
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="G80">
+        <f t="shared" ca="1" si="8"/>
         <v>61</v>
       </c>
-      <c r="G80">
-        <f t="shared" ca="1" si="8"/>
-        <v>87</v>
-      </c>
       <c r="H80">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="J80">
         <f t="shared" ca="1" si="5"/>
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="K80">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -16389,39 +16510,39 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J81">
         <f t="shared" ca="1" si="5"/>
-        <v>195</v>
+        <v>259</v>
       </c>
       <c r="K81">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -16433,23 +16554,23 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="8"/>
@@ -16457,15 +16578,15 @@
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="J82">
         <f t="shared" ca="1" si="5"/>
-        <v>190</v>
+        <v>265</v>
       </c>
       <c r="K82">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -16477,39 +16598,39 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="9"/>
+        <v>61</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="8"/>
+        <v>83</v>
+      </c>
+      <c r="G83">
+        <f t="shared" ca="1" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="H83">
+        <f t="shared" ca="1" si="8"/>
         <v>93</v>
       </c>
-      <c r="F83">
-        <f t="shared" ca="1" si="8"/>
-        <v>65</v>
-      </c>
-      <c r="G83">
-        <f t="shared" ca="1" si="8"/>
-        <v>53</v>
-      </c>
-      <c r="H83">
-        <f t="shared" ca="1" si="8"/>
-        <v>62</v>
-      </c>
       <c r="I83">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="J83">
         <f t="shared" ca="1" si="5"/>
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="K83">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -16521,39 +16642,39 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="J84">
         <f t="shared" ca="1" si="5"/>
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="K84">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -16565,39 +16686,39 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="9"/>
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="J85">
         <f t="shared" ca="1" si="5"/>
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="K85">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -16609,39 +16730,39 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="9"/>
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="J86">
         <f t="shared" ref="J86:J101" ca="1" si="10">SUM(C86:E86)</f>
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K86">
         <f t="shared" ref="K86:K101" ca="1" si="11">ROUND(AVERAGE(C86:E86),0)</f>
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -16653,39 +16774,39 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="9"/>
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="J87">
         <f t="shared" ca="1" si="10"/>
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="K87">
         <f t="shared" ca="1" si="11"/>
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -16697,39 +16818,39 @@
       </c>
       <c r="C88">
         <f t="shared" ref="C88:I101" ca="1" si="12">RANDBETWEEN(50,100)</f>
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="12"/>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="9"/>
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J88">
         <f t="shared" ca="1" si="10"/>
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="K88">
         <f t="shared" ca="1" si="11"/>
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -16741,39 +16862,39 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="12"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="12"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="9"/>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I89">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J89">
         <f t="shared" ca="1" si="10"/>
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="K89">
         <f t="shared" ca="1" si="11"/>
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -16785,39 +16906,39 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="12"/>
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="12"/>
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="9"/>
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="I90">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J90">
         <f t="shared" ca="1" si="10"/>
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="K90">
         <f t="shared" ca="1" si="11"/>
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -16829,39 +16950,39 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="12"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="12"/>
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="9"/>
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="J91">
         <f t="shared" ca="1" si="10"/>
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="K91">
         <f t="shared" ca="1" si="11"/>
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -16873,39 +16994,39 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="12"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="12"/>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="9"/>
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J92">
         <f t="shared" ca="1" si="10"/>
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="K92">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -16917,39 +17038,39 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="12"/>
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="12"/>
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="9"/>
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="J93">
         <f t="shared" ca="1" si="10"/>
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K93">
         <f t="shared" ca="1" si="11"/>
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -16961,23 +17082,23 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="12"/>
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="12"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="8"/>
@@ -16989,11 +17110,11 @@
       </c>
       <c r="J94">
         <f t="shared" ca="1" si="10"/>
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="K94">
         <f t="shared" ca="1" si="11"/>
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -17005,35 +17126,35 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="12"/>
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="12"/>
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="9"/>
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="J95">
         <f t="shared" ca="1" si="10"/>
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K95">
         <f t="shared" ca="1" si="11"/>
@@ -17049,39 +17170,39 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="12"/>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="12"/>
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="9"/>
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="8"/>
+        <v>94</v>
+      </c>
+      <c r="G96">
+        <f t="shared" ca="1" si="8"/>
+        <v>85</v>
+      </c>
+      <c r="H96">
+        <f t="shared" ca="1" si="8"/>
+        <v>79</v>
+      </c>
+      <c r="I96">
+        <f t="shared" ca="1" si="8"/>
         <v>87</v>
-      </c>
-      <c r="G96">
-        <f t="shared" ca="1" si="8"/>
-        <v>91</v>
-      </c>
-      <c r="H96">
-        <f t="shared" ca="1" si="8"/>
-        <v>78</v>
-      </c>
-      <c r="I96">
-        <f t="shared" ca="1" si="8"/>
-        <v>65</v>
       </c>
       <c r="J96">
         <f t="shared" ca="1" si="10"/>
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K96">
         <f t="shared" ca="1" si="11"/>
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -17093,39 +17214,39 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="12"/>
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="12"/>
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="9"/>
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="J97">
         <f t="shared" ca="1" si="10"/>
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="K97">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -17137,39 +17258,39 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="12"/>
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="12"/>
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I98">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="J98">
         <f t="shared" ca="1" si="10"/>
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="K98">
         <f t="shared" ca="1" si="11"/>
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -17181,39 +17302,39 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="12"/>
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="12"/>
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="9"/>
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J99">
         <f t="shared" ca="1" si="10"/>
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="K99">
         <f t="shared" ca="1" si="11"/>
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -17225,39 +17346,39 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="12"/>
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="12"/>
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="9"/>
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="9"/>
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="9"/>
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="9"/>
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="9"/>
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J100">
         <f t="shared" ca="1" si="10"/>
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="K100">
         <f t="shared" ca="1" si="11"/>
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -17269,39 +17390,39 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="12"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="12"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="12"/>
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="12"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="12"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="12"/>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="I101">
         <f t="shared" ca="1" si="12"/>
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="J101">
         <f t="shared" ca="1" si="10"/>
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="K101">
         <f t="shared" ca="1" si="11"/>
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -17309,4 +17430,2848 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48F7F00-2369-4DB5-AFAF-9E878402C8E7}">
+  <dimension ref="A1:G101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2">
+        <f ca="1">RANDBETWEEN(50,100)</f>
+        <v>66</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:E22" ca="1" si="0">RANDBETWEEN(50,100)</f>
+        <v>79</v>
+      </c>
+      <c r="E2">
+        <f ca="1">RANDBETWEEN(50,100)</f>
+        <v>79</v>
+      </c>
+      <c r="F2">
+        <f ca="1">SUM(C2:E2)</f>
+        <v>224</v>
+      </c>
+      <c r="G2">
+        <f ca="1">ROUND(AVERAGE(C2:E2),0)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:E23" ca="1" si="1">RANDBETWEEN(50,100)</f>
+        <v>56</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" ca="1" si="2">SUM(C3:E3)</f>
+        <v>246</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" ca="1" si="3">ROUND(AVERAGE(C3:E3),0)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="2"/>
+        <v>231</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="2"/>
+        <v>231</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="2"/>
+        <v>217</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="2"/>
+        <v>233</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="2"/>
+        <v>235</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="2"/>
+        <v>253</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="2"/>
+        <v>245</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="2"/>
+        <v>194</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="2"/>
+        <v>239</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="2"/>
+        <v>208</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="2"/>
+        <v>206</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="2"/>
+        <v>249</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="3"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="2"/>
+        <v>217</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:E60" ca="1" si="4">RANDBETWEEN(50,100)</f>
+        <v>65</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="2"/>
+        <v>231</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="2"/>
+        <v>262</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="2"/>
+        <v>251</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="2"/>
+        <v>234</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="2"/>
+        <v>204</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="2"/>
+        <v>242</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="3"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="2"/>
+        <v>199</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="2"/>
+        <v>235</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="2"/>
+        <v>243</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ca="1" si="3"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="2"/>
+        <v>206</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="2"/>
+        <v>241</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="2"/>
+        <v>223</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="2"/>
+        <v>230</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="2"/>
+        <v>227</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="2"/>
+        <v>259</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="2"/>
+        <v>232</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="2"/>
+        <v>252</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="2"/>
+        <v>236</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="2"/>
+        <v>221</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="2"/>
+        <v>244</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="3"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="2"/>
+        <v>227</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="2"/>
+        <v>228</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="2"/>
+        <v>257</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="2"/>
+        <v>258</v>
+      </c>
+      <c r="G53">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="2"/>
+        <v>211</v>
+      </c>
+      <c r="G54">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="2"/>
+        <v>209</v>
+      </c>
+      <c r="G55">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="2"/>
+        <v>271</v>
+      </c>
+      <c r="G56">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="2"/>
+        <v>265</v>
+      </c>
+      <c r="G57">
+        <f t="shared" ca="1" si="3"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="2"/>
+        <v>204</v>
+      </c>
+      <c r="G58">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="2"/>
+        <v>216</v>
+      </c>
+      <c r="G59">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="2"/>
+        <v>247</v>
+      </c>
+      <c r="G60">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ref="C61:E101" ca="1" si="5">RANDBETWEEN(50,100)</f>
+        <v>91</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="2"/>
+        <v>252</v>
+      </c>
+      <c r="G61">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="2"/>
+        <v>233</v>
+      </c>
+      <c r="G62">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="2"/>
+        <v>257</v>
+      </c>
+      <c r="G63">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="2"/>
+        <v>249</v>
+      </c>
+      <c r="G64">
+        <f t="shared" ca="1" si="3"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="2"/>
+        <v>257</v>
+      </c>
+      <c r="G65">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ca="1" si="2"/>
+        <v>220</v>
+      </c>
+      <c r="G66">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ca="1" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ca="1" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F130" ca="1" si="6">SUM(C67:E67)</f>
+        <v>163</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G130" ca="1" si="7">ROUND(AVERAGE(C67:E67),0)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="6"/>
+        <v>191</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ca="1" si="7"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="6"/>
+        <v>187</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ca="1" si="7"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="6"/>
+        <v>254</v>
+      </c>
+      <c r="G70">
+        <f t="shared" ca="1" si="7"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="G71">
+        <f t="shared" ca="1" si="7"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="6"/>
+        <v>206</v>
+      </c>
+      <c r="G72">
+        <f t="shared" ca="1" si="7"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="6"/>
+        <v>270</v>
+      </c>
+      <c r="G73">
+        <f t="shared" ca="1" si="7"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="6"/>
+        <v>240</v>
+      </c>
+      <c r="G74">
+        <f t="shared" ca="1" si="7"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ca="1" si="6"/>
+        <v>217</v>
+      </c>
+      <c r="G75">
+        <f t="shared" ca="1" si="7"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="G76">
+        <f t="shared" ca="1" si="7"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="6"/>
+        <v>253</v>
+      </c>
+      <c r="G77">
+        <f t="shared" ca="1" si="7"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="G78">
+        <f t="shared" ca="1" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ca="1" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="6"/>
+        <v>236</v>
+      </c>
+      <c r="G79">
+        <f t="shared" ca="1" si="7"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="6"/>
+        <v>228</v>
+      </c>
+      <c r="G80">
+        <f t="shared" ca="1" si="7"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="6"/>
+        <v>274</v>
+      </c>
+      <c r="G81">
+        <f t="shared" ca="1" si="7"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="6"/>
+        <v>243</v>
+      </c>
+      <c r="G82">
+        <f t="shared" ca="1" si="7"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="6"/>
+        <v>223</v>
+      </c>
+      <c r="G83">
+        <f t="shared" ca="1" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ca="1" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="6"/>
+        <v>208</v>
+      </c>
+      <c r="G84">
+        <f t="shared" ca="1" si="7"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="6"/>
+        <v>223</v>
+      </c>
+      <c r="G85">
+        <f t="shared" ca="1" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="6"/>
+        <v>241</v>
+      </c>
+      <c r="G86">
+        <f t="shared" ca="1" si="7"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="6"/>
+        <v>199</v>
+      </c>
+      <c r="G87">
+        <f t="shared" ca="1" si="7"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="6"/>
+        <v>251</v>
+      </c>
+      <c r="G88">
+        <f t="shared" ca="1" si="7"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="6"/>
+        <v>230</v>
+      </c>
+      <c r="G89">
+        <f t="shared" ca="1" si="7"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="6"/>
+        <v>242</v>
+      </c>
+      <c r="G90">
+        <f t="shared" ca="1" si="7"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="6"/>
+        <v>201</v>
+      </c>
+      <c r="G91">
+        <f t="shared" ca="1" si="7"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="6"/>
+        <v>236</v>
+      </c>
+      <c r="G92">
+        <f t="shared" ca="1" si="7"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="6"/>
+        <v>241</v>
+      </c>
+      <c r="G93">
+        <f t="shared" ca="1" si="7"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="6"/>
+        <v>224</v>
+      </c>
+      <c r="G94">
+        <f t="shared" ca="1" si="7"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="6"/>
+        <v>256</v>
+      </c>
+      <c r="G95">
+        <f t="shared" ca="1" si="7"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ca="1" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="6"/>
+        <v>186</v>
+      </c>
+      <c r="G96">
+        <f t="shared" ca="1" si="7"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="6"/>
+        <v>245</v>
+      </c>
+      <c r="G97">
+        <f t="shared" ca="1" si="7"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ca="1" si="6"/>
+        <v>263</v>
+      </c>
+      <c r="G98">
+        <f t="shared" ca="1" si="7"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="6"/>
+        <v>217</v>
+      </c>
+      <c r="G99">
+        <f t="shared" ca="1" si="7"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="6"/>
+        <v>265</v>
+      </c>
+      <c r="G100">
+        <f t="shared" ca="1" si="7"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ca="1" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ca="1" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ca="1" si="6"/>
+        <v>226</v>
+      </c>
+      <c r="G101">
+        <f t="shared" ca="1" si="7"/>
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>